--- a/面试题/实习.xlsx
+++ b/面试题/实习.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B809F2A7-BADE-4C16-9EC6-B6116CAD5927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>拼多多</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,13 +39,81 @@
   </si>
   <si>
     <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,19 +432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -383,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -391,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -399,58 +470,112 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>360</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
     </row>
   </sheetData>

--- a/面试题/实习.xlsx
+++ b/面试题/实习.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B809F2A7-BADE-4C16-9EC6-B6116CAD5927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC690C73-0BC9-43DB-819D-4F6BB887BD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2085" windowWidth="14400" windowHeight="8273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>拼多多</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,50 @@
   </si>
   <si>
     <t>4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招联金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周内未联系，凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微众银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.20流程已终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易/互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +167,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,9 +197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,16 +481,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,20 +499,20 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>3.26</v>
@@ -472,16 +520,16 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -489,94 +537,131 @@
         <v>360</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
